--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>What Matters Priority Flag</t>
+    <t>What Matters Priority</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -609,6 +609,9 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -622,7 +625,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -650,7 +653,12 @@
     <t>us-core</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="survey"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
@@ -659,19 +667,16 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
-    <t>Observation.category:survey</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Indicates the person-centered outcomes observation is of type survey</t>
-  </si>
-  <si>
-    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
+    <t>Observation.category:wellbeing-domain</t>
+  </si>
+  <si>
+    <t>wellbeing-domain</t>
+  </si>
+  <si>
+    <t>Well-Being domain category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -681,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t>Focus area for What Matters assessment</t>
+    <t>Priority for this category of well-being</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -693,7 +698,15 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/wellbeing-concepts"/&gt;
+    &lt;code value="wellbeing-priority"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1411,9 +1424,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1789,7 +1799,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.34375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3533,7 +3543,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3548,19 +3558,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3588,23 +3598,23 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3631,10 +3641,10 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3642,23 +3652,23 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3670,19 +3680,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3692,7 +3702,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3710,10 +3720,10 @@
         <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3755,10 +3765,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3766,13 +3776,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
@@ -3782,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3794,19 +3804,19 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3831,11 +3841,9 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
         <v>210</v>
       </c>
@@ -3879,10 +3887,10 @@
         <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3916,7 +3924,7 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>213</v>
@@ -3938,7 +3946,7 @@
         <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>82</v>
@@ -3957,7 +3965,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3990,30 +3998,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4036,19 +4044,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4097,7 +4105,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4112,19 +4120,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4132,10 +4140,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4158,16 +4166,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4217,7 +4225,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4238,13 +4246,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4252,14 +4260,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4278,19 +4286,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4339,7 +4347,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4354,19 +4362,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4374,14 +4382,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4400,19 +4408,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4461,7 +4469,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4476,19 +4484,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4496,10 +4504,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4522,16 +4530,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4581,7 +4589,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4602,13 +4610,13 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4616,10 +4624,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4642,17 +4650,17 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4701,7 +4709,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4716,19 +4724,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4736,10 +4744,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4762,19 +4770,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4823,7 +4831,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4832,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4841,27 +4849,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4884,19 +4892,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4921,13 +4929,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4945,7 +4953,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4954,7 +4962,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4969,7 +4977,7 @@
         <v>135</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4980,14 +4988,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5006,19 +5014,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5043,13 +5051,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5067,7 +5075,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5085,27 +5093,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5128,19 +5136,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5189,7 +5197,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5210,10 +5218,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5224,10 +5232,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5250,16 +5258,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5285,13 +5293,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5309,7 +5317,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5327,27 +5335,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5370,19 +5378,19 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5407,13 +5415,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5431,7 +5439,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5452,10 +5460,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5466,10 +5474,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5492,16 +5500,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5551,7 +5559,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5569,27 +5577,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5612,16 +5620,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5671,7 +5679,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5689,27 +5697,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5732,19 +5740,19 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5793,7 +5801,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5805,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5814,10 +5822,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5828,10 +5836,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5854,13 +5862,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5911,7 +5919,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5935,7 +5943,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5946,10 +5954,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5978,7 +5986,7 @@
         <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>141</v>
@@ -6031,7 +6039,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6055,7 +6063,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6066,14 +6074,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6095,10 +6103,10 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6153,7 +6161,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6188,10 +6196,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6214,13 +6222,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6271,7 +6279,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6280,7 +6288,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6292,10 +6300,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6306,10 +6314,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6332,13 +6340,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6389,7 +6397,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6398,7 +6406,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6410,10 +6418,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6424,10 +6432,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6450,19 +6458,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6490,10 +6498,10 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6511,7 +6519,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6529,13 +6537,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6546,10 +6554,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6572,19 +6580,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6609,13 +6617,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6633,7 +6641,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6651,13 +6659,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6668,10 +6676,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6694,17 +6702,17 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6753,7 +6761,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6777,7 +6785,7 @@
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6788,10 +6796,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6814,13 +6822,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6871,7 +6879,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6892,10 +6900,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6906,10 +6914,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6932,16 +6940,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6991,7 +6999,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7012,10 +7020,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7026,10 +7034,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7052,16 +7060,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7111,7 +7119,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7132,10 +7140,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7146,10 +7154,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7172,19 +7180,19 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7233,7 +7241,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7254,10 +7262,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7268,10 +7276,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7294,13 +7302,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7351,7 +7359,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7375,7 +7383,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7386,10 +7394,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7418,7 +7426,7 @@
         <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>141</v>
@@ -7471,7 +7479,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7495,7 +7503,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7506,14 +7514,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7535,10 +7543,10 @@
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7593,7 +7601,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7628,10 +7636,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7654,16 +7662,16 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>216</v>
@@ -7691,13 +7699,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>446</v>
+        <v>218</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7715,7 +7723,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>92</v>
@@ -7736,13 +7744,13 @@
         <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7782,13 +7790,13 @@
         <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7858,16 +7866,16 @@
         <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7898,7 +7906,7 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>454</v>
@@ -7910,7 +7918,7 @@
         <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7935,13 +7943,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7968,7 +7976,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7983,7 +7991,7 @@
         <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8001,7 +8009,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8020,19 +8028,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8057,13 +8065,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8099,19 +8107,19 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -8151,10 +8159,10 @@
         <v>460</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8224,10 +8232,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority.xlsx
+++ b/StructureDefinition-pco-what-matters-priority.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
